--- a/InputFiles/CCDI/TC05_CCDI_phs002504_FileType-bam_LibStr-WXS_LibSel-PCR_DC-Sequencing.xlsx
+++ b/InputFiles/CCDI/TC05_CCDI_phs002504_FileType-bam_LibStr-WXS_LibSel-PCR_DC-Sequencing.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kallakuriv2\Automation\sowjanya0417\Commons_Automation\InputFiles\CCDI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tatekaraa\Automation\05-01-25\Commons_Automation\InputFiles\CCDI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6092F96B-005A-40EF-B571-6C6456CA688B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{612723CA-3A40-47FC-AF38-40D293B05BFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8362173B-D28C-47E7-8626-98E16101E601}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{8362173B-D28C-47E7-8626-98E16101E601}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -132,68 +132,6 @@
 WHERE s.dbgap_accession = 'phs002504';</t>
   </si>
   <si>
-    <t>WITH diagnosis_summary AS ( 
-    SELECT 
-        dgn."participant.id" AS participant_id, 
-        GROUP_CONCAT(DISTINCT dgn.age_at_diagnosis) AS age_at_diagnosis, 
-        GROUP_CONCAT(DISTINCT dgn.diagnosis) AS diagnosis, 
-        GROUP_CONCAT(DISTINCT dgn.anatomic_site) AS anatomic_site,
-        GROUP_CONCAT(DISTINCT dgn.diagnosis_basis) AS diagnosis_basis
-    FROM df_diagnosis dgn
-    WHERE dgn."participant.id" IS NOT NULL
-    GROUP BY dgn."participant.id"
-),
-survival_summary AS (
-    SELECT 
-        "participant.id" AS participant_id,
-        GROUP_CONCAT(DISTINCT last_known_survival_status) AS last_known_survival_status
-    FROM df_survival
-    WHERE last_known_survival_status IS NOT NULL
-    GROUP BY "participant.id"
-),
-treatment_summary AS (
-    SELECT 
-        trt."participant.id" AS participant_id,
-        GROUP_CONCAT(DISTINCT trt.treatment_type) AS treatment_type
-    FROM df_treatment trt
-    WHERE trt."participant.id" IS NOT NULL
-    GROUP BY trt."participant.id"
-)
-SELECT
-    prt.participant_id AS "Participant ID",
-    std.dbgap_accession AS "Study ID",
-    COALESCE(prt.sex_at_birth, '') AS "Sex",
-    COALESCE(prt.race, '') AS "Race",
-    COALESCE(dgn.diagnosis, '') AS "Diagnosis",
-    COALESCE(dgn.anatomic_site, '') AS "Diagnosis Anatomic Site",
-    COALESCE(
-        CASE 
-            WHEN dgn.age_at_diagnosis = '-999' THEN 'Not Reported'
-            ELSE dgn.age_at_diagnosis 
-        END, ''
-    ) AS "Age at Diagnosis (days)",
-    COALESCE(trt.treatment_type, '') AS "Treatment Type",
-    COALESCE(srv.last_known_survival_status, '') AS "Last Known Survival Status"
-FROM df_participant prt
-JOIN df_study std ON prt."study.id" = std.id
-LEFT JOIN diagnosis_summary dgn ON prt.id = dgn.participant_id
-LEFT JOIN survival_summary srv ON prt.id = srv.participant_id
-LEFT JOIN treatment_summary trt ON prt.id = trt.participant_id
-WHERE std.dbgap_accession = 'phs002504'
-  AND EXISTS (
-      SELECT 1 
-      FROM df_sample smp
-      JOIN df_sequencing_file f ON f."sample.id" = smp.id
-      WHERE smp."participant.id" = prt.id
-        AND f.file_type = 'bam'
-        AND f.library_selection = 'PCR'
-        AND f.library_strategy = 'WXS'
-        AND f.data_category = 'Sequencing'
-  )
-ORDER BY prt.participant_id ASC
-Limit 100 ;</t>
-  </si>
-  <si>
     <t>SELECT DISTINCT   
     smp.sample_id AS "Sample ID",
     prt.participant_id AS "Participant ID",
@@ -276,6 +214,68 @@
   </si>
   <si>
     <t>TC05_CCDI_phs002504_FileType-bam_LibStr-WXS_LibSel-PCR_DC-Sequencing_WebData.xlsx</t>
+  </si>
+  <si>
+    <t>WITH diagnosis_summary AS ( 
+    SELECT 
+        dgn."participant.id" AS participant_id, 
+        GROUP_CONCAT(dgn.age_at_diagnosis) AS age_at_diagnosis,  -- Removed DISTINCT from GROUP_CONCAT
+        GROUP_CONCAT(dgn.diagnosis) AS diagnosis,                 -- Removed DISTINCT from GROUP_CONCAT
+        GROUP_CONCAT(dgn.anatomic_site) AS anatomic_site,         -- Removed DISTINCT from GROUP_CONCAT
+        GROUP_CONCAT(dgn.diagnosis_basis) AS diagnosis_basis      -- Removed DISTINCT from GROUP_CONCAT
+    FROM df_diagnosis dgn
+    WHERE dgn."participant.id" IS NOT NULL
+    GROUP BY dgn."participant.id"
+),
+survival_summary AS (
+    SELECT 
+        "participant.id" AS participant_id,
+        GROUP_CONCAT(last_known_survival_status) AS last_known_survival_status  -- Removed DISTINCT from GROUP_CONCAT
+    FROM df_survival
+    WHERE last_known_survival_status IS NOT NULL
+    GROUP BY "participant.id"
+),
+treatment_summary AS (
+    SELECT 
+        trt."participant.id" AS participant_id,
+        GROUP_CONCAT(trt.treatment_type) AS treatment_type  -- Removed DISTINCT from GROUP_CONCAT
+    FROM df_treatment trt
+    WHERE trt."participant.id" IS NOT NULL
+    GROUP BY trt."participant.id"
+)
+SELECT
+    prt.participant_id AS "Participant ID",
+    std.dbgap_accession AS "Study ID",
+    COALESCE(prt.sex_at_birth, '') AS "Sex",
+    COALESCE(prt.race, '') AS "Race",
+    COALESCE(dgn.diagnosis, '') AS "Diagnosis",
+    COALESCE(dgn.anatomic_site, '') AS "Diagnosis Anatomic Site",
+    COALESCE(
+        CASE 
+            WHEN dgn.age_at_diagnosis = '-999' THEN 'Not Reported'
+            ELSE dgn.age_at_diagnosis 
+        END, ''
+    ) AS "Age at Diagnosis (days)",
+    COALESCE(trt.treatment_type, '') AS "Treatment Type",
+    COALESCE(srv.last_known_survival_status, '') AS "Last Known Survival Status"
+FROM df_participant prt
+JOIN df_study std ON prt."study.id" = std.id
+LEFT JOIN diagnosis_summary dgn ON prt.id = dgn.participant_id
+LEFT JOIN survival_summary srv ON prt.id = srv.participant_id
+LEFT JOIN treatment_summary trt ON prt.id = trt.participant_id
+WHERE std.dbgap_accession = 'phs002504'
+  AND EXISTS (
+      SELECT 1 
+      FROM df_sample smp
+      JOIN df_sequencing_file f ON f."sample.id" = smp.id
+      WHERE smp."participant.id" = prt.id
+        AND f.file_type = 'bam'
+        AND f.library_selection = 'PCR'
+        AND f.library_strategy = 'WXS'
+        AND f.data_category = 'Sequencing'
+  )
+ORDER BY prt.participant_id ASC
+LIMIT 100;</t>
   </si>
 </sst>
 </file>
@@ -677,8 +677,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C538400-E87C-4027-A918-A51DB80B3430}">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C2" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -711,16 +711,16 @@
         <v>5</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" t="s">
         <v>14</v>
-      </c>
-      <c r="E2" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
@@ -737,7 +737,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C4" s="2"/>
     </row>
@@ -746,7 +746,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C5" s="2"/>
     </row>
